--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44291</v>
+        <v>44243</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>9000</v>
+        <v>10375</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44312</v>
+        <v>44333</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
         <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44200</v>
+        <v>44405</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K4" t="n">
         <v>9000</v>
@@ -658,19 +658,19 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44243</v>
+        <v>44312</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
         <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>10375</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44405</v>
+        <v>44284</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,32 +789,32 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44315</v>
+        <v>44200</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44333</v>
+        <v>44186</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>10400</v>
+        <v>7000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44186</v>
+        <v>44179</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44179</v>
+        <v>44291</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44284</v>
+        <v>44315</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
         <v>10000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44243</v>
+        <v>44315</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
         <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>10375</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44333</v>
+        <v>44186</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>10400</v>
+        <v>7000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44405</v>
+        <v>44179</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="Q4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44312</v>
+        <v>44333</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
         <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44200</v>
+        <v>44405</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K7" t="n">
         <v>9000</v>
@@ -874,19 +874,19 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44186</v>
+        <v>44200</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
         <v>10000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44179</v>
+        <v>44243</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M10" t="n">
-        <v>7000</v>
+        <v>10375</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44315</v>
+        <v>44291</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44315</v>
+        <v>44277</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44186</v>
+        <v>44179</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44179</v>
+        <v>44405</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44333</v>
+        <v>44200</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>10400</v>
+        <v>9000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44405</v>
+        <v>44315</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,32 +861,32 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44200</v>
+        <v>44291</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K8" t="n">
         <v>9000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44312</v>
+        <v>44186</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1155,10 +1155,10 @@
         <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44291</v>
+        <v>44312</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
         <v>10000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44179</v>
+        <v>44243</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>7000</v>
+        <v>10375</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44405</v>
+        <v>44200</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>9000</v>
@@ -658,19 +658,19 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="Q4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44200</v>
+        <v>44284</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44284</v>
+        <v>44405</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,32 +789,32 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44315</v>
+        <v>44291</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44291</v>
+        <v>44315</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44186</v>
+        <v>44277</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44243</v>
+        <v>44333</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
         <v>10000</v>
@@ -1086,7 +1086,7 @@
         <v>11000</v>
       </c>
       <c r="M10" t="n">
-        <v>10375</v>
+        <v>10400</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44333</v>
+        <v>44186</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>10400</v>
+        <v>7000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44312</v>
+        <v>44179</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44312</v>
+        <v>44243</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
         <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>10375</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44243</v>
+        <v>44179</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>10375</v>
+        <v>7000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44200</v>
+        <v>44186</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44284</v>
+        <v>44405</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44405</v>
+        <v>44277</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,32 +789,32 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44291</v>
+        <v>44200</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
         <v>9000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44315</v>
+        <v>44333</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -939,10 +939,10 @@
         <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44277</v>
+        <v>44291</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44333</v>
+        <v>44284</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K10" t="n">
         <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44186</v>
+        <v>44312</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44179</v>
+        <v>44315</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44243</v>
+        <v>44333</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
         <v>10000</v>
@@ -510,7 +510,7 @@
         <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>10375</v>
+        <v>10400</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44179</v>
+        <v>44405</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="Q3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44186</v>
+        <v>44291</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44405</v>
+        <v>44312</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44277</v>
+        <v>44186</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44200</v>
+        <v>44179</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44333</v>
+        <v>44243</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
         <v>10000</v>
@@ -942,7 +942,7 @@
         <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>10400</v>
+        <v>10375</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44312</v>
+        <v>44315</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
         <v>10000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44315</v>
+        <v>44200</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44405</v>
+        <v>44186</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="Q3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44291</v>
+        <v>44284</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44312</v>
+        <v>44179</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44186</v>
+        <v>44315</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44179</v>
+        <v>44312</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44315</v>
+        <v>44405</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44333</v>
+        <v>44243</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
         <v>10000</v>
@@ -510,7 +510,7 @@
         <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>10400</v>
+        <v>10375</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44186</v>
+        <v>44315</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44284</v>
+        <v>44333</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
         <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44179</v>
+        <v>44291</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44315</v>
+        <v>44200</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44312</v>
+        <v>44284</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" t="n">
         <v>10000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44243</v>
+        <v>44179</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>10375</v>
+        <v>7000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44277</v>
+        <v>44186</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44291</v>
+        <v>44405</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K10" t="n">
         <v>9000</v>
@@ -1090,19 +1090,19 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44405</v>
+        <v>44277</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44200</v>
+        <v>44312</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44315</v>
+        <v>44333</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -579,10 +579,10 @@
         <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44333</v>
+        <v>44291</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>10400</v>
+        <v>9000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44291</v>
+        <v>44179</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44200</v>
+        <v>44405</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K6" t="n">
         <v>9000</v>
@@ -802,19 +802,19 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44179</v>
+        <v>44200</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44186</v>
+        <v>44277</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44405</v>
+        <v>44315</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,32 +1077,32 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44277</v>
+        <v>44186</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1254,6 +1254,78 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100112032</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Zapallo italiano</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>30</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>60</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44243</v>
+        <v>44284</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="K2" t="n">
         <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>10375</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44333</v>
+        <v>44585</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
         <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>10400</v>
+        <v>11000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44291</v>
+        <v>44243</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M4" t="n">
-        <v>9000</v>
+        <v>10375</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44179</v>
+        <v>44405</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="Q5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44405</v>
+        <v>44333</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,32 +789,32 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>9000</v>
+        <v>10400</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Q6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44284</v>
+        <v>44186</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44200</v>
+        <v>44291</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K8" t="n">
         <v>9000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44277</v>
+        <v>44315</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44315</v>
+        <v>44200</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44186</v>
+        <v>44312</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44312</v>
+        <v>44277</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
         <v>10000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44585</v>
+        <v>44179</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44284</v>
+        <v>44315</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
         <v>10000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44585</v>
+        <v>44243</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
         <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>11000</v>
+        <v>10375</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44243</v>
+        <v>44405</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>10375</v>
+        <v>9000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44405</v>
+        <v>44186</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="Q5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44333</v>
+        <v>44200</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>10400</v>
+        <v>9000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44186</v>
+        <v>44284</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44291</v>
+        <v>44333</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>9000</v>
+        <v>10400</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44315</v>
+        <v>44291</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44200</v>
+        <v>44277</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44312</v>
+        <v>44179</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44277</v>
+        <v>44585</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44179</v>
+        <v>44312</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44315</v>
+        <v>44243</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
         <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>10375</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44243</v>
+        <v>44585</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
         <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>10375</v>
+        <v>11000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44405</v>
+        <v>44315</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44186</v>
+        <v>44277</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44200</v>
+        <v>44291</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
         <v>9000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44284</v>
+        <v>44186</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44291</v>
+        <v>44200</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K9" t="n">
         <v>9000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44277</v>
+        <v>44405</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,32 +1077,32 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44179</v>
+        <v>44312</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44585</v>
+        <v>44284</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44312</v>
+        <v>44179</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44243</v>
+        <v>44585</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
         <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>10375</v>
+        <v>11000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44585</v>
+        <v>44186</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44315</v>
+        <v>44312</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
         <v>10000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44291</v>
+        <v>44200</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K6" t="n">
         <v>9000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44186</v>
+        <v>44333</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M7" t="n">
-        <v>7000</v>
+        <v>10400</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44333</v>
+        <v>44179</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>10400</v>
+        <v>7000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44200</v>
+        <v>44315</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44312</v>
+        <v>44291</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44284</v>
+        <v>44243</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
         <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>10375</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44179</v>
+        <v>44284</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44585</v>
+        <v>44243</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="n">
         <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>11000</v>
+        <v>10375</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44186</v>
+        <v>44179</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44312</v>
+        <v>44333</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
         <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44200</v>
+        <v>44186</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44333</v>
+        <v>44585</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L7" t="n">
         <v>11000</v>
       </c>
       <c r="M7" t="n">
-        <v>10400</v>
+        <v>11000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44179</v>
+        <v>44312</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44315</v>
+        <v>44291</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44291</v>
+        <v>44315</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44243</v>
+        <v>44284</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
         <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>10375</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44284</v>
+        <v>44200</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44243</v>
+        <v>44291</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>10375</v>
+        <v>9000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44333</v>
+        <v>44186</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>10400</v>
+        <v>7000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
         <v>10000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44186</v>
+        <v>44312</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44585</v>
+        <v>44200</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44312</v>
+        <v>44585</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -936,13 +936,13 @@
         <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44405</v>
+        <v>44333</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,32 +1077,32 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M10" t="n">
-        <v>9000</v>
+        <v>10400</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Q10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44315</v>
+        <v>44405</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44284</v>
+        <v>44243</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
         <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>10375</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44200</v>
+        <v>44315</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44291</v>
+        <v>44312</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44186</v>
+        <v>44405</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44284</v>
+        <v>44243</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
         <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>10375</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44312</v>
+        <v>44333</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
         <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44200</v>
+        <v>44186</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44585</v>
+        <v>44200</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44277</v>
+        <v>44585</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44333</v>
+        <v>44315</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1083,10 +1083,10 @@
         <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44405</v>
+        <v>44284</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44243</v>
+        <v>44277</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
         <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>10375</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44315</v>
+        <v>44291</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44312</v>
+        <v>44284</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K2" t="n">
         <v>10000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44179</v>
+        <v>44277</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44405</v>
+        <v>44291</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>9000</v>
@@ -658,19 +658,19 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="Q4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44243</v>
+        <v>44405</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>10375</v>
+        <v>9000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44333</v>
+        <v>44186</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>10400</v>
+        <v>7000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44186</v>
+        <v>44312</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44200</v>
+        <v>44333</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>9000</v>
+        <v>10400</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44315</v>
+        <v>44243</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
         <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>10375</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44284</v>
+        <v>44315</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
         <v>10000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44277</v>
+        <v>44179</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44291</v>
+        <v>44200</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>9000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44284</v>
+        <v>44243</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
         <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>10375</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44277</v>
+        <v>44315</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44291</v>
+        <v>44405</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K4" t="n">
         <v>9000</v>
@@ -658,19 +658,19 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44405</v>
+        <v>44333</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M5" t="n">
-        <v>9000</v>
+        <v>10400</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Q5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44186</v>
+        <v>44585</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44333</v>
+        <v>44277</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -939,10 +939,10 @@
         <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44585</v>
+        <v>44186</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44243</v>
+        <v>44200</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>10375</v>
+        <v>9000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44315</v>
+        <v>44179</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44179</v>
+        <v>44284</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44200</v>
+        <v>44291</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
         <v>9000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44243</v>
+        <v>44333</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
         <v>10000</v>
@@ -510,7 +510,7 @@
         <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>10375</v>
+        <v>10400</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44315</v>
+        <v>44186</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44405</v>
+        <v>44277</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44333</v>
+        <v>44284</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
         <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44585</v>
+        <v>44291</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44312</v>
+        <v>44200</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44277</v>
+        <v>44243</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
         <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>10000</v>
+        <v>10375</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44186</v>
+        <v>44312</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44200</v>
+        <v>44585</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M10" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44179</v>
+        <v>44405</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="Q11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44291</v>
+        <v>44315</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44333</v>
+        <v>44315</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -507,10 +507,10 @@
         <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44186</v>
+        <v>44585</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44277</v>
+        <v>44405</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44284</v>
+        <v>44277</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
         <v>10000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44291</v>
+        <v>44243</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>9000</v>
+        <v>10375</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44200</v>
+        <v>44284</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44243</v>
+        <v>44179</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>10375</v>
+        <v>7000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44312</v>
+        <v>44291</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44585</v>
+        <v>44312</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1080,13 +1080,13 @@
         <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44405</v>
+        <v>44333</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>9000</v>
+        <v>10400</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Q11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44179</v>
+        <v>44200</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K12" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44315</v>
+        <v>44186</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44315</v>
+        <v>44277</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44585</v>
+        <v>44333</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
         <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>11000</v>
+        <v>10400</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44405</v>
+        <v>44200</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>9000</v>
@@ -658,19 +658,19 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="Q4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
         <v>10000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44243</v>
+        <v>44179</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>10375</v>
+        <v>7000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44284</v>
+        <v>44312</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
         <v>10000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44179</v>
+        <v>44243</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>7000</v>
+        <v>10375</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44291</v>
+        <v>44315</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44312</v>
+        <v>44291</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44333</v>
+        <v>44585</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L11" t="n">
         <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>10400</v>
+        <v>11000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44200</v>
+        <v>44405</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K12" t="n">
         <v>9000</v>
@@ -1234,19 +1234,19 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -507,10 +507,10 @@
         <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44333</v>
+        <v>44284</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
         <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44200</v>
+        <v>44312</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44284</v>
+        <v>44186</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44179</v>
+        <v>44291</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44312</v>
+        <v>44585</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -864,13 +864,13 @@
         <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44243</v>
+        <v>44277</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
         <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>10375</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44315</v>
+        <v>44179</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44291</v>
+        <v>44315</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44585</v>
+        <v>44243</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K11" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
         <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>11000</v>
+        <v>10375</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44405</v>
+        <v>44200</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K12" t="n">
         <v>9000</v>
@@ -1234,19 +1234,19 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="Q12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44186</v>
+        <v>44405</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,32 +1293,32 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="Q13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44284</v>
+        <v>44312</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
         <v>10000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44312</v>
+        <v>44405</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44186</v>
+        <v>44315</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44291</v>
+        <v>44200</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K6" t="n">
         <v>9000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44585</v>
+        <v>44291</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44277</v>
+        <v>44585</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44179</v>
+        <v>44277</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44315</v>
+        <v>44186</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44243</v>
+        <v>44179</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>10375</v>
+        <v>7000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44200</v>
+        <v>44284</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44405</v>
+        <v>44243</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>9000</v>
+        <v>10375</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Q13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44333</v>
+        <v>44277</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -507,10 +507,10 @@
         <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44312</v>
+        <v>44186</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44405</v>
+        <v>44179</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="Q4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44315</v>
+        <v>44405</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44291</v>
+        <v>44312</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K9" t="n">
         <v>10000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44186</v>
+        <v>44315</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44179</v>
+        <v>44333</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>7000</v>
+        <v>10400</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44284</v>
+        <v>44243</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
         <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>10375</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44243</v>
+        <v>44291</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>10375</v>
+        <v>9000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44277</v>
+        <v>44200</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44186</v>
+        <v>44291</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44179</v>
+        <v>44333</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M4" t="n">
-        <v>7000</v>
+        <v>10400</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44405</v>
+        <v>44277</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44200</v>
+        <v>44243</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>9000</v>
+        <v>10375</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44585</v>
+        <v>44186</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44333</v>
+        <v>44405</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L11" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>10400</v>
+        <v>9000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44243</v>
+        <v>44284</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
         <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>10375</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44291</v>
+        <v>44585</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44200</v>
+        <v>44333</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>9000</v>
+        <v>10400</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44291</v>
+        <v>44315</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44333</v>
+        <v>44312</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
         <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
         <v>10000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44243</v>
+        <v>44405</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>10375</v>
+        <v>9000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44312</v>
+        <v>44277</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
         <v>10000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44179</v>
+        <v>44243</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>7000</v>
+        <v>10375</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44315</v>
+        <v>44200</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44405</v>
+        <v>44585</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44585</v>
+        <v>44291</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44315</v>
+        <v>44186</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44312</v>
+        <v>44284</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K4" t="n">
         <v>10000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44405</v>
+        <v>44291</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
         <v>9000</v>
@@ -802,19 +802,19 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="Q6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
         <v>10000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44186</v>
+        <v>44243</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>7000</v>
+        <v>10375</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44243</v>
+        <v>44315</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
         <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>10375</v>
+        <v>10000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44585</v>
+        <v>44405</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K11" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L11" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44179</v>
+        <v>44277</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44291</v>
+        <v>44585</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44186</v>
+        <v>44315</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44284</v>
+        <v>44312</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
         <v>10000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44179</v>
+        <v>44284</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44291</v>
+        <v>44405</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K6" t="n">
         <v>9000</v>
@@ -802,19 +802,19 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44312</v>
+        <v>44277</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
         <v>10000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44243</v>
+        <v>44186</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>10375</v>
+        <v>7000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44315</v>
+        <v>44243</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
         <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>10000</v>
+        <v>10375</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44405</v>
+        <v>44585</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44277</v>
+        <v>44179</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44585</v>
+        <v>44291</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44333</v>
+        <v>44585</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
         <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>10400</v>
+        <v>11000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44186</v>
+        <v>44405</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="Q3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44284</v>
+        <v>44186</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44179</v>
+        <v>44312</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44312</v>
+        <v>44284</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" t="n">
         <v>10000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44243</v>
+        <v>44315</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
         <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>10375</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44315</v>
+        <v>44200</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44200</v>
+        <v>44179</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44405</v>
+        <v>44291</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
         <v>9000</v>
@@ -1162,19 +1162,19 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="Q11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44277</v>
+        <v>44243</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
         <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>10375</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44585</v>
+        <v>44333</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
         <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>11000</v>
+        <v>10400</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44585</v>
+        <v>44315</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44405</v>
+        <v>44312</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44312</v>
+        <v>44284</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
         <v>10000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44284</v>
+        <v>44333</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
         <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44315</v>
+        <v>44405</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44200</v>
+        <v>44243</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>9000</v>
+        <v>10375</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44179</v>
+        <v>44585</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M10" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44291</v>
+        <v>44200</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
         <v>9000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44243</v>
+        <v>44179</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>10375</v>
+        <v>7000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44333</v>
+        <v>44291</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>10400</v>
+        <v>9000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44315</v>
+        <v>44333</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -507,10 +507,10 @@
         <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44312</v>
+        <v>44200</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44186</v>
+        <v>44277</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
         <v>10000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44333</v>
+        <v>44405</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,32 +861,32 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>10400</v>
+        <v>9000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44405</v>
+        <v>44585</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q8" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44243</v>
+        <v>44179</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>10375</v>
+        <v>7000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44585</v>
+        <v>44243</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
         <v>11000</v>
       </c>
       <c r="M10" t="n">
-        <v>11000</v>
+        <v>10375</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44200</v>
+        <v>44186</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44179</v>
+        <v>44291</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44291</v>
+        <v>44315</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44333</v>
+        <v>44277</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -507,10 +507,10 @@
         <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44200</v>
+        <v>44179</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K4" t="n">
         <v>10000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44284</v>
+        <v>44585</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44405</v>
+        <v>44315</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,32 +861,32 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44585</v>
+        <v>44333</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
         <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>11000</v>
+        <v>10400</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44179</v>
+        <v>44200</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44186</v>
+        <v>44405</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="Q11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44291</v>
+        <v>44186</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44315</v>
+        <v>44291</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44186</v>
+        <v>45001</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K12" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44291</v>
+        <v>44186</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,12 +1315,84 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
       </c>
       <c r="R13" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100112032</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Zapallo italiano</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>20</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>60</v>
+      </c>
+      <c r="R14" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44277</v>
+        <v>44405</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44179</v>
+        <v>44284</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44284</v>
+        <v>44585</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44585</v>
+        <v>45001</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44312</v>
+        <v>44277</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
         <v>10000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44200</v>
+        <v>44291</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
         <v>9000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44243</v>
+        <v>44312</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
         <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>10375</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44405</v>
+        <v>44200</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
         <v>9000</v>
@@ -1162,19 +1162,19 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="Q11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45001</v>
+        <v>44186</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44186</v>
+        <v>44179</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44291</v>
+        <v>44243</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K14" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M14" t="n">
-        <v>9000</v>
+        <v>10375</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44277</v>
+        <v>45030</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,32 +789,32 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="Q6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44315</v>
+        <v>44277</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44333</v>
+        <v>44315</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -939,10 +939,10 @@
         <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44291</v>
+        <v>44333</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>9000</v>
+        <v>10400</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44312</v>
+        <v>44291</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44200</v>
+        <v>44312</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44186</v>
+        <v>44200</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K12" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L12" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44243</v>
+        <v>44179</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L14" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>10375</v>
+        <v>7000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,16 +1383,88 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
       </c>
       <c r="R14" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44243</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100112032</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Zapallo italiano</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>80</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>10375</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>173</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>60</v>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44405</v>
+        <v>44333</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>9000</v>
+        <v>10400</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Q2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44284</v>
+        <v>44405</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44585</v>
+        <v>45001</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45001</v>
+        <v>44200</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45030</v>
+        <v>44312</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,32 +789,32 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44277</v>
+        <v>45030</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,32 +861,32 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="Q7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44315</v>
+        <v>44291</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44333</v>
+        <v>44179</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>10400</v>
+        <v>7000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44291</v>
+        <v>44243</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M10" t="n">
-        <v>9000</v>
+        <v>10375</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44312</v>
+        <v>44186</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44200</v>
+        <v>44284</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44186</v>
+        <v>44315</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44179</v>
+        <v>44277</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K14" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44243</v>
+        <v>44585</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L15" t="n">
         <v>11000</v>
       </c>
       <c r="M15" t="n">
-        <v>10375</v>
+        <v>11000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44333</v>
+        <v>44315</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -507,10 +507,10 @@
         <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45001</v>
+        <v>44186</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44200</v>
+        <v>44179</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44312</v>
+        <v>44243</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
         <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>10375</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45030</v>
+        <v>44312</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,32 +861,32 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44291</v>
+        <v>44333</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>9000</v>
+        <v>10400</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44179</v>
+        <v>45030</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,32 +1005,32 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M9" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q9" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44243</v>
+        <v>44291</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>10375</v>
+        <v>9000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44186</v>
+        <v>44284</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44284</v>
+        <v>45001</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K12" t="n">
         <v>10000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44315</v>
+        <v>44277</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44277</v>
+        <v>44585</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M14" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44585</v>
+        <v>44200</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K15" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L15" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44315</v>
+        <v>45030</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="Q2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44405</v>
+        <v>44277</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44186</v>
+        <v>45001</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44179</v>
+        <v>44284</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44243</v>
+        <v>44200</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>10375</v>
+        <v>9000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44312</v>
+        <v>44405</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,32 +861,32 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44333</v>
+        <v>44186</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>10400</v>
+        <v>7000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45030</v>
+        <v>44312</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,32 +1005,32 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44291</v>
+        <v>44179</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44284</v>
+        <v>44315</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
         <v>10000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45001</v>
+        <v>44291</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44277</v>
+        <v>44585</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44585</v>
+        <v>44333</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K14" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L14" t="n">
         <v>11000</v>
       </c>
       <c r="M14" t="n">
-        <v>11000</v>
+        <v>10400</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44200</v>
+        <v>44243</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M15" t="n">
-        <v>9000</v>
+        <v>10375</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45030</v>
+        <v>44179</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L2" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44277</v>
+        <v>44315</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45001</v>
+        <v>44291</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44284</v>
+        <v>44277</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
         <v>10000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44200</v>
+        <v>44585</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44405</v>
+        <v>44284</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,32 +861,32 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44179</v>
+        <v>44200</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44315</v>
+        <v>44243</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K11" t="n">
         <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>10375</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44291</v>
+        <v>44405</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K12" t="n">
         <v>9000</v>
@@ -1234,19 +1234,19 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44585</v>
+        <v>44333</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
         <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>11000</v>
+        <v>10400</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44333</v>
+        <v>45030</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M14" t="n">
-        <v>10400</v>
+        <v>6000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="Q14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44243</v>
+        <v>45001</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K15" t="n">
         <v>10000</v>
       </c>
       <c r="L15" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>10375</v>
+        <v>10000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44179</v>
+        <v>45030</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L2" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M2" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44315</v>
+        <v>44277</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44291</v>
+        <v>45001</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
         <v>10000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44585</v>
+        <v>44200</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K6" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44284</v>
+        <v>44405</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,32 +861,32 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44200</v>
+        <v>44179</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44243</v>
+        <v>44315</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
         <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>10375</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44405</v>
+        <v>44291</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
         <v>9000</v>
@@ -1234,19 +1234,19 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="Q12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44333</v>
+        <v>44585</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
         <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>10400</v>
+        <v>11000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45030</v>
+        <v>44333</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L14" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M14" t="n">
-        <v>6000</v>
+        <v>10400</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="Q14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45001</v>
+        <v>44243</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
         <v>10000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M15" t="n">
-        <v>10000</v>
+        <v>10375</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44315</v>
+        <v>44277</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44291</v>
+        <v>45001</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
         <v>10000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44585</v>
+        <v>44243</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
         <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>11000</v>
+        <v>10375</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44186</v>
+        <v>44315</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44312</v>
+        <v>45030</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,32 +1005,32 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M9" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="Q9" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44200</v>
+        <v>44186</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44243</v>
+        <v>44585</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L11" t="n">
         <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>10375</v>
+        <v>11000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44333</v>
+        <v>44284</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K13" t="n">
         <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45030</v>
+        <v>44333</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L14" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M14" t="n">
-        <v>6000</v>
+        <v>10400</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="Q14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45001</v>
+        <v>44200</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K15" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44179</v>
+        <v>44315</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44277</v>
+        <v>44186</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45001</v>
+        <v>44405</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44312</v>
+        <v>45030</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="Q5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44243</v>
+        <v>44179</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>10375</v>
+        <v>7000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44291</v>
+        <v>45001</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44315</v>
+        <v>44333</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -939,10 +939,10 @@
         <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45030</v>
+        <v>44312</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,32 +1005,32 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44186</v>
+        <v>44200</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44585</v>
+        <v>44277</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44405</v>
+        <v>44243</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M12" t="n">
-        <v>9000</v>
+        <v>10375</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Q12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44284</v>
+        <v>44585</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44333</v>
+        <v>44284</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K14" t="n">
         <v>10000</v>
       </c>
       <c r="L14" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44200</v>
+        <v>44291</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K15" t="n">
         <v>9000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44315</v>
+        <v>44200</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44186</v>
+        <v>44284</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44405</v>
+        <v>44277</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45030</v>
+        <v>44291</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Q5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44179</v>
+        <v>44243</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>7000</v>
+        <v>10375</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45001</v>
+        <v>44333</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
         <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44333</v>
+        <v>44585</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
         <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>10400</v>
+        <v>11000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44312</v>
+        <v>44179</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44200</v>
+        <v>44186</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44277</v>
+        <v>44405</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44243</v>
+        <v>45001</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K12" t="n">
         <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>10375</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44585</v>
+        <v>44312</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1296,13 +1296,13 @@
         <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44284</v>
+        <v>45030</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M14" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="Q14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44291</v>
+        <v>44315</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K15" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44200</v>
+        <v>44585</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44284</v>
+        <v>44277</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
         <v>10000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44277</v>
+        <v>44200</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44291</v>
+        <v>45001</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44243</v>
+        <v>44312</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
         <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>10375</v>
+        <v>10000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44585</v>
+        <v>44315</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44179</v>
+        <v>44243</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>7000</v>
+        <v>10375</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44186</v>
+        <v>44284</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44405</v>
+        <v>44179</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="Q11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45001</v>
+        <v>45030</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,32 +1221,32 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="Q12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44312</v>
+        <v>44405</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,32 +1293,32 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45030</v>
+        <v>44186</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L14" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44315</v>
+        <v>44291</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K15" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44585</v>
+        <v>44200</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
         <v>10000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44200</v>
+        <v>44277</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45001</v>
+        <v>44291</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44312</v>
+        <v>44243</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
         <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>10375</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44315</v>
+        <v>44585</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44243</v>
+        <v>44179</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>10375</v>
+        <v>7000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44284</v>
+        <v>44186</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44179</v>
+        <v>44405</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="Q11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45030</v>
+        <v>45001</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,32 +1221,32 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K12" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44405</v>
+        <v>44312</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,32 +1293,32 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44186</v>
+        <v>45030</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M14" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44291</v>
+        <v>44315</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K15" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44585</v>
+        <v>44186</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -579,10 +579,10 @@
         <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44200</v>
+        <v>44277</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44312</v>
+        <v>44200</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44333</v>
+        <v>44312</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
         <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44315</v>
+        <v>44585</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44243</v>
+        <v>44405</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L9" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>10375</v>
+        <v>9000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q9" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44284</v>
+        <v>45030</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,32 +1077,32 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="Q10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44179</v>
+        <v>44315</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45030</v>
+        <v>44243</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,32 +1221,32 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M12" t="n">
-        <v>6000</v>
+        <v>10375</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="Q12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44405</v>
+        <v>44179</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,32 +1293,32 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="Q13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44186</v>
+        <v>44284</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K14" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44186</v>
+        <v>44585</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44333</v>
+        <v>44277</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -579,10 +579,10 @@
         <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44277</v>
+        <v>44200</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44200</v>
+        <v>44312</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44312</v>
+        <v>44333</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
         <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44585</v>
+        <v>44315</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44405</v>
+        <v>44243</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>9000</v>
+        <v>10375</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Q9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45030</v>
+        <v>44284</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,32 +1077,32 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K10" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44315</v>
+        <v>44179</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44243</v>
+        <v>45030</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,32 +1221,32 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L12" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M12" t="n">
-        <v>10375</v>
+        <v>6000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="Q12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44179</v>
+        <v>44405</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,32 +1293,32 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M13" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="Q13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44284</v>
+        <v>44186</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44186</v>
+        <v>44585</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44333</v>
+        <v>45001</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K3" t="n">
         <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K4" t="n">
         <v>10000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45001</v>
+        <v>45030</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="Q5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44200</v>
+        <v>44243</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>9000</v>
+        <v>10375</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44312</v>
+        <v>44179</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44585</v>
+        <v>44405</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44405</v>
+        <v>44312</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,32 +1005,32 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45030</v>
+        <v>44186</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,32 +1077,32 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44315</v>
+        <v>44291</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44243</v>
+        <v>44277</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
         <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>10375</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44179</v>
+        <v>44333</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>7000</v>
+        <v>10400</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44284</v>
+        <v>44315</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K14" t="n">
         <v>10000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44291</v>
+        <v>44200</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K15" t="n">
         <v>9000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44585</v>
+        <v>44186</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M2" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45001</v>
+        <v>44284</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
         <v>10000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45030</v>
+        <v>44333</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M5" t="n">
-        <v>6000</v>
+        <v>10400</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="Q5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44243</v>
+        <v>44312</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
         <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>10375</v>
+        <v>10000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44179</v>
+        <v>44405</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,32 +861,32 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="Q7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44405</v>
+        <v>44200</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K8" t="n">
         <v>9000</v>
@@ -946,19 +946,19 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="Q8" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44312</v>
+        <v>44585</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1008,13 +1008,13 @@
         <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44186</v>
+        <v>45001</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44291</v>
+        <v>45030</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K11" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M11" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="Q11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44277</v>
+        <v>44291</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44333</v>
+        <v>44277</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1299,10 +1299,10 @@
         <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44200</v>
+        <v>44243</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M15" t="n">
-        <v>9000</v>
+        <v>10375</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44186</v>
+        <v>44585</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44179</v>
+        <v>45001</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44333</v>
+        <v>44186</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>10400</v>
+        <v>7000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44405</v>
+        <v>44291</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K7" t="n">
         <v>9000</v>
@@ -874,19 +874,19 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="Q7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44200</v>
+        <v>44405</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K8" t="n">
         <v>9000</v>
@@ -946,19 +946,19 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44585</v>
+        <v>44277</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45001</v>
+        <v>44284</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K10" t="n">
         <v>10000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45030</v>
+        <v>44315</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44291</v>
+        <v>44243</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M12" t="n">
-        <v>9000</v>
+        <v>10375</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1299,10 +1299,10 @@
         <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44315</v>
+        <v>45030</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M14" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="Q14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44243</v>
+        <v>44200</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="K15" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L15" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>10375</v>
+        <v>9000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44585</v>
+        <v>44284</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44179</v>
+        <v>44243</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>7000</v>
+        <v>10375</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45001</v>
+        <v>44333</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
         <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44186</v>
+        <v>44291</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44312</v>
+        <v>44186</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44291</v>
+        <v>44200</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
         <v>9000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44405</v>
+        <v>45030</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M8" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q8" t="n">
         <v>50</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44277</v>
+        <v>45001</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K9" t="n">
         <v>10000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44284</v>
+        <v>44315</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
         <v>10000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44315</v>
+        <v>44405</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44243</v>
+        <v>44585</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L12" t="n">
         <v>11000</v>
       </c>
       <c r="M12" t="n">
-        <v>10375</v>
+        <v>11000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44333</v>
+        <v>44312</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
         <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45030</v>
+        <v>44277</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K14" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L14" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="Q14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44200</v>
+        <v>44179</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M15" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44284</v>
+        <v>45001</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K2" t="n">
         <v>10000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44243</v>
+        <v>44277</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
         <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>10375</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44333</v>
+        <v>44291</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>10400</v>
+        <v>9000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44291</v>
+        <v>45030</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="Q5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44200</v>
+        <v>44585</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45030</v>
+        <v>44405</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K8" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L8" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Q8" t="n">
         <v>50</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45001</v>
+        <v>44179</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44315</v>
+        <v>44284</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K10" t="n">
         <v>10000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44405</v>
+        <v>44200</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
         <v>9000</v>
@@ -1162,19 +1162,19 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="Q11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44585</v>
+        <v>44312</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1224,13 +1224,13 @@
         <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="n">
         <v>60</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44312</v>
+        <v>44243</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
         <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>10000</v>
+        <v>10375</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44277</v>
+        <v>44315</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44179</v>
+        <v>44333</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K15" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L15" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M15" t="n">
-        <v>7000</v>
+        <v>10400</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45001</v>
+        <v>44405</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44277</v>
+        <v>44585</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44291</v>
+        <v>44200</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>9000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45030</v>
+        <v>45001</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44186</v>
+        <v>44243</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>7000</v>
+        <v>10375</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44585</v>
+        <v>44333</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
         <v>11000</v>
       </c>
       <c r="M7" t="n">
-        <v>11000</v>
+        <v>10400</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44405</v>
+        <v>45030</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L8" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M8" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q8" t="n">
         <v>50</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44179</v>
+        <v>44291</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44284</v>
+        <v>44186</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44200</v>
+        <v>44315</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44312</v>
+        <v>44284</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
         <v>10000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44243</v>
+        <v>44179</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M13" t="n">
-        <v>10375</v>
+        <v>7000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44315</v>
+        <v>44312</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
         <v>10000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44333</v>
+        <v>44277</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1443,10 +1443,10 @@
         <v>10000</v>
       </c>
       <c r="L15" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44405</v>
+        <v>45001</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K2" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44585</v>
+        <v>44277</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44200</v>
+        <v>44291</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>9000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45001</v>
+        <v>45030</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="Q5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44243</v>
+        <v>44186</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L6" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M6" t="n">
-        <v>10375</v>
+        <v>7000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44333</v>
+        <v>44585</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L7" t="n">
         <v>11000</v>
       </c>
       <c r="M7" t="n">
-        <v>10400</v>
+        <v>11000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45030</v>
+        <v>44405</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K8" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L8" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Q8" t="n">
         <v>50</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44291</v>
+        <v>44179</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="Q9" t="n">
         <v>60</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44186</v>
+        <v>44284</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44315</v>
+        <v>44200</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44284</v>
+        <v>44312</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
         <v>10000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44179</v>
+        <v>44243</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>7000</v>
+        <v>10375</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44312</v>
+        <v>44315</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K14" t="n">
         <v>10000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1443,10 +1443,10 @@
         <v>10000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M15" t="n">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44200</v>
+        <v>45251</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45001</v>
+        <v>44200</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44243</v>
+        <v>45001</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K6" t="n">
         <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>10375</v>
+        <v>10000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44333</v>
+        <v>44243</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K7" t="n">
         <v>10000</v>
@@ -870,7 +870,7 @@
         <v>11000</v>
       </c>
       <c r="M7" t="n">
-        <v>10400</v>
+        <v>10375</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45030</v>
+        <v>44333</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M8" t="n">
-        <v>6000</v>
+        <v>10400</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="Q8" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44291</v>
+        <v>45030</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,32 +1005,32 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M9" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="Q9" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44186</v>
+        <v>44291</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="Q10" t="n">
         <v>60</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44315</v>
+        <v>44186</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44284</v>
+        <v>44315</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
         <v>10000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44179</v>
+        <v>44284</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K13" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44312</v>
+        <v>44179</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M14" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
         <v>10000</v>
@@ -1465,6 +1465,78 @@
         <v>60</v>
       </c>
       <c r="R15" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100112032</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Zapallo italiano</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>25</v>
+      </c>
+      <c r="K16" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M16" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$/caja 60 unidades</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>167</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>60</v>
+      </c>
+      <c r="R16" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44405</v>
+        <v>45030</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M2" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q2" t="n">
         <v>50</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44585</v>
+        <v>44277</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45251</v>
+        <v>44291</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="Q4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44200</v>
+        <v>44179</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M5" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45001</v>
+        <v>44243</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
         <v>10000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>10375</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q6" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44243</v>
+        <v>44186</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L7" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M7" t="n">
-        <v>10375</v>
+        <v>7000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44333</v>
+        <v>44315</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -939,10 +939,10 @@
         <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45030</v>
+        <v>45251</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1008,13 +1008,13 @@
         <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="Q9" t="n">
         <v>50</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44291</v>
+        <v>44200</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
         <v>9000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44186</v>
+        <v>44284</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="n">
         <v>60</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44315</v>
+        <v>45001</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K12" t="n">
         <v>10000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44284</v>
+        <v>44585</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M13" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44179</v>
+        <v>44333</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K14" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L14" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M14" t="n">
-        <v>7000</v>
+        <v>10400</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44312</v>
+        <v>44405</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,32 +1437,32 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K15" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q15" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
         <v>10000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Zapallo italiano.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45030</v>
+        <v>44277</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44277</v>
+        <v>44291</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44291</v>
+        <v>45251</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,32 +645,32 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44179</v>
+        <v>44405</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,32 +717,32 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 60 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="Q5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44243</v>
+        <v>44333</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
         <v>10000</v>
@@ -798,7 +798,7 @@
         <v>11000</v>
       </c>
       <c r="M6" t="n">
-        <v>10375</v>
+        <v>10400</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44186</v>
+        <v>44585</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L7" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M7" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44315</v>
+        <v>44186</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45251</v>
+        <v>44243</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,32 +1005,32 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="n">
-        <v>14000</v>
+        <v>10375</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 60 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="Q9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44284</v>
+        <v>45001</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K11" t="n">
         <v>10000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45001</v>
+        <v>44312</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
         <v>10000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44585</v>
+        <v>44315</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="n">
         <v>60</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44333</v>
+        <v>44284</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K14" t="n">
         <v>10000</v>
       </c>
       <c r="L14" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44405</v>
+        <v>45030</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L15" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M15" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q15" t="n">
         <v>50</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44312</v>
+        <v>44179</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L16" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M16" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q16" t="n">
         <v>60</v>
